--- a/lca estimations/selects2003LCA_results.xlsx
+++ b/lca estimations/selects2003LCA_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\master-thesis\lca estimations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2C6275-A3C7-41FB-A464-C35DD65D9782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659CB0D-C130-4979-AD41-CD26DF656E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1245" windowWidth="25290" windowHeight="14205" activeTab="2" xr2:uid="{2357C145-5D55-45F0-A136-598F69FF50F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{2357C145-5D55-45F0-A136-598F69FF50F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12644,12 +12644,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -12664,7 +12670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -12678,13 +12684,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13003,85 +13012,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACCC75-D59F-49A2-B922-95B33CAB1CEF}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
@@ -13133,7 +13142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -13181,7 +13190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -13237,7 +13246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -13293,7 +13302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -13349,7 +13358,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -13405,7 +13414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -13461,7 +13470,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
@@ -13517,7 +13526,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>105</v>
       </c>
@@ -13573,7 +13582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
@@ -13629,7 +13638,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>133</v>
       </c>
@@ -13685,7 +13694,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>147</v>
       </c>
@@ -13741,7 +13750,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -13797,7 +13806,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>174</v>
       </c>
@@ -13853,7 +13862,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>188</v>
       </c>
@@ -13909,7 +13918,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>202</v>
       </c>
@@ -13965,7 +13974,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>215</v>
       </c>
@@ -14021,7 +14030,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>229</v>
       </c>
@@ -14065,7 +14074,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>230</v>
       </c>
@@ -14121,7 +14130,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>245</v>
       </c>
@@ -14167,7 +14176,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>246</v>
       </c>
@@ -14205,13 +14214,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ACEDF9-E3C6-404D-A3D7-4503BBF9DF44}">
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:T92"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>247</v>
       </c>
@@ -14235,7 +14247,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>248</v>
@@ -14295,7 +14307,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>266</v>
       </c>
@@ -14319,7 +14331,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>267</v>
@@ -14379,7 +14391,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>286</v>
       </c>
@@ -14435,7 +14447,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>303</v>
       </c>
@@ -14491,7 +14503,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>320</v>
       </c>
@@ -14515,7 +14527,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>321</v>
@@ -14575,7 +14587,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>340</v>
       </c>
@@ -14631,7 +14643,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>357</v>
       </c>
@@ -14687,7 +14699,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>374</v>
       </c>
@@ -14743,7 +14755,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>391</v>
       </c>
@@ -14767,7 +14779,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>392</v>
@@ -14827,7 +14839,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>286</v>
       </c>
@@ -14883,7 +14895,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>303</v>
       </c>
@@ -14939,7 +14951,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>443</v>
       </c>
@@ -14963,7 +14975,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>444</v>
@@ -15023,7 +15035,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>286</v>
       </c>
@@ -15079,7 +15091,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>303</v>
       </c>
@@ -15135,7 +15147,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>495</v>
       </c>
@@ -15159,7 +15171,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>496</v>
@@ -15219,7 +15231,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>286</v>
       </c>
@@ -15275,7 +15287,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>303</v>
       </c>
@@ -15331,7 +15343,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>374</v>
       </c>
@@ -15387,7 +15399,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>563</v>
       </c>
@@ -15411,7 +15423,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>564</v>
@@ -15471,7 +15483,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>583</v>
       </c>
@@ -15527,7 +15539,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>600</v>
       </c>
@@ -15583,7 +15595,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>374</v>
       </c>
@@ -15639,7 +15651,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>633</v>
       </c>
@@ -15663,7 +15675,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>634</v>
@@ -15723,7 +15735,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>286</v>
       </c>
@@ -15779,7 +15791,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>303</v>
       </c>
@@ -15835,7 +15847,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>683</v>
       </c>
@@ -15859,7 +15871,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>684</v>
@@ -15919,7 +15931,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>286</v>
       </c>
@@ -15975,7 +15987,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>303</v>
       </c>
@@ -16031,7 +16043,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>374</v>
       </c>
@@ -16087,7 +16099,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>750</v>
       </c>
@@ -16111,7 +16123,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>751</v>
@@ -16171,7 +16183,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>770</v>
       </c>
@@ -16227,7 +16239,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>374</v>
       </c>
@@ -16283,7 +16295,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>803</v>
       </c>
@@ -16339,7 +16351,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -16361,7 +16373,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>820</v>
       </c>
@@ -16391,7 +16403,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>266</v>
       </c>
@@ -16415,7 +16427,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>822</v>
@@ -16443,7 +16455,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>286</v>
       </c>
@@ -16469,7 +16481,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>303</v>
       </c>
@@ -16495,7 +16507,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>320</v>
       </c>
@@ -16519,7 +16531,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>827</v>
@@ -16547,7 +16559,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>340</v>
       </c>
@@ -16573,7 +16585,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>357</v>
       </c>
@@ -16599,7 +16611,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>374</v>
       </c>
@@ -16625,7 +16637,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>391</v>
       </c>
@@ -16649,7 +16661,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>833</v>
@@ -16677,7 +16689,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>286</v>
       </c>
@@ -16703,7 +16715,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>303</v>
       </c>
@@ -16729,7 +16741,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>443</v>
       </c>
@@ -16753,7 +16765,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>838</v>
@@ -16781,7 +16793,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>286</v>
       </c>
@@ -16807,7 +16819,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>303</v>
       </c>
@@ -16833,7 +16845,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>495</v>
       </c>
@@ -16857,7 +16869,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>843</v>
@@ -16885,7 +16897,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>286</v>
       </c>
@@ -16911,7 +16923,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>303</v>
       </c>
@@ -16937,7 +16949,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>374</v>
       </c>
@@ -16963,7 +16975,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>563</v>
       </c>
@@ -16987,7 +16999,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>848</v>
@@ -17015,7 +17027,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>583</v>
       </c>
@@ -17041,7 +17053,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>600</v>
       </c>
@@ -17067,7 +17079,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>374</v>
       </c>
@@ -17093,7 +17105,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>633</v>
       </c>
@@ -17117,7 +17129,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>854</v>
@@ -17145,7 +17157,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>286</v>
       </c>
@@ -17171,7 +17183,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>303</v>
       </c>
@@ -17197,7 +17209,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>683</v>
       </c>
@@ -17221,7 +17233,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
         <v>859</v>
@@ -17249,7 +17261,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>286</v>
       </c>
@@ -17275,7 +17287,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>303</v>
       </c>
@@ -17301,7 +17313,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>374</v>
       </c>
@@ -17327,7 +17339,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>750</v>
       </c>
@@ -17351,7 +17363,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>865</v>
@@ -17379,7 +17391,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>770</v>
       </c>
@@ -17405,7 +17417,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>374</v>
       </c>
@@ -17431,7 +17443,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>803</v>
       </c>
@@ -17457,7 +17469,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -17479,7 +17491,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -17501,7 +17513,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>871</v>
       </c>
@@ -17525,7 +17537,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>872</v>
       </c>
@@ -17585,7 +17597,7 @@
       </c>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
       <c r="B91" s="1" t="s">
         <v>873</v>
@@ -17643,7 +17655,7 @@
       </c>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -17674,16 +17686,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC44CB1-E350-4D1B-AFEB-4F144F13610F}">
   <dimension ref="A1:R382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C4:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>248</v>
@@ -17737,7 +17749,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>890</v>
       </c>
@@ -17791,7 +17803,7 @@
       </c>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>906</v>
       </c>
@@ -17813,7 +17825,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>266</v>
       </c>
@@ -17835,7 +17847,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>907</v>
@@ -17882,60 +17894,60 @@
       <c r="P5" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="8" t="s">
         <v>920</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="8" t="s">
         <v>936</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -17945,7 +17957,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>303</v>
       </c>
@@ -18001,7 +18013,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>320</v>
       </c>
@@ -18023,7 +18035,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>913</v>
@@ -18070,14 +18082,14 @@
       <c r="P9" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="8" t="s">
         <v>965</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>340</v>
       </c>
@@ -18093,7 +18105,7 @@
       <c r="E10" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>970</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -18133,29 +18145,29 @@
         <v>982</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>986</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="8" t="s">
         <v>989</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -18167,29 +18179,29 @@
       <c r="K11" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="8" t="s">
         <v>584</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="8" t="s">
         <v>996</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="8" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>374</v>
       </c>
@@ -18214,19 +18226,19 @@
       <c r="H12" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="8" t="s">
         <v>1005</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="8" t="s">
         <v>1007</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="8" t="s">
         <v>1009</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -18245,7 +18257,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>391</v>
       </c>
@@ -18267,7 +18279,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>1015</v>
@@ -18321,7 +18333,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>286</v>
       </c>
@@ -18337,7 +18349,7 @@
       <c r="E15" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="8" t="s">
         <v>1031</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -18377,26 +18389,26 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>1046</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="8" t="s">
         <v>1048</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -18433,7 +18445,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>443</v>
       </c>
@@ -18455,7 +18467,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>913</v>
@@ -18499,60 +18511,60 @@
       <c r="O18" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="8" t="s">
         <v>1070</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>1072</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>1074</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="8" t="s">
         <v>1078</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="8" t="s">
         <v>1079</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="8" t="s">
         <v>1082</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="8" t="s">
         <v>1084</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -18561,18 +18573,18 @@
       <c r="Q19" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="8" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>1089</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -18608,7 +18620,7 @@
       <c r="N20" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="8" t="s">
         <v>1100</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -18621,7 +18633,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>495</v>
       </c>
@@ -18643,7 +18655,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>1104</v>
@@ -18681,7 +18693,7 @@
       <c r="M22" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="8" t="s">
         <v>1114</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -18690,30 +18702,30 @@
       <c r="P22" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="8" t="s">
         <v>1116</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>1118</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="8" t="s">
         <v>1121</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -18722,16 +18734,16 @@
       <c r="H23" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="8" t="s">
         <v>1127</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -18749,39 +18761,39 @@
       <c r="Q23" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="8" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="8" t="s">
         <v>1135</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="8" t="s">
         <v>1137</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="8" t="s">
         <v>1139</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="8" t="s">
         <v>1141</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -18790,16 +18802,16 @@
       <c r="L24" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="8" t="s">
         <v>1146</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="8" t="s">
         <v>1147</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -18809,7 +18821,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>374</v>
       </c>
@@ -18865,7 +18877,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>563</v>
       </c>
@@ -18887,7 +18899,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>1166</v>
@@ -18934,24 +18946,24 @@
       <c r="P27" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="8" t="s">
         <v>1176</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>1178</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="8" t="s">
         <v>1180</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -18972,7 +18984,7 @@
       <c r="J28" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="8" t="s">
         <v>1186</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -18981,10 +18993,10 @@
       <c r="M28" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="8" t="s">
         <v>1188</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="8" t="s">
         <v>1189</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -18997,44 +19009,44 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="8" t="s">
         <v>1194</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>1195</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="8" t="s">
         <v>1196</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="8" t="s">
         <v>1197</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="8" t="s">
         <v>1198</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="8" t="s">
         <v>1200</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="8" t="s">
         <v>1202</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="8" t="s">
         <v>1203</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -19043,17 +19055,17 @@
       <c r="O29" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="8" t="s">
         <v>1206</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="8" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>374</v>
       </c>
@@ -19078,7 +19090,7 @@
       <c r="H30" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="8" t="s">
         <v>1215</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -19109,7 +19121,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>633</v>
       </c>
@@ -19131,7 +19143,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>1222</v>
@@ -19178,21 +19190,21 @@
       <c r="P32" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="8" t="s">
         <v>1233</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="8" t="s">
         <v>1236</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -19222,7 +19234,7 @@
       <c r="L33" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="8" t="s">
         <v>1245</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -19231,7 +19243,7 @@
       <c r="O33" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="8" t="s">
         <v>1248</v>
       </c>
       <c r="Q33" s="1" t="s">
@@ -19241,50 +19253,50 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="8" t="s">
         <v>1250</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="8" t="s">
         <v>1252</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="8" t="s">
         <v>1255</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="8" t="s">
         <v>1256</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="8" t="s">
         <v>1257</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="8" t="s">
         <v>1258</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="8" t="s">
         <v>1259</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="8" t="s">
         <v>1262</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -19297,7 +19309,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>683</v>
       </c>
@@ -19319,7 +19331,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>913</v>
@@ -19373,14 +19385,14 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="8" t="s">
         <v>1277</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -19429,11 +19441,11 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>1293</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -19485,7 +19497,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>374</v>
       </c>
@@ -19541,7 +19553,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>750</v>
       </c>
@@ -19563,7 +19575,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>1322</v>
@@ -19617,7 +19629,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>770</v>
       </c>
@@ -19673,7 +19685,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>374</v>
       </c>
@@ -19729,14 +19741,14 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>803</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="8" t="s">
         <v>1253</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -19785,7 +19797,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>1377</v>
       </c>
@@ -19807,7 +19819,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>1378</v>
       </c>
@@ -19829,7 +19841,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>1379</v>
       </c>
@@ -19885,7 +19897,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>1396</v>
       </c>
@@ -19941,7 +19953,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>1413</v>
       </c>
@@ -19963,8 +19975,8 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
         <v>44986</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -20019,8 +20031,8 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
         <v>45020</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -20075,8 +20087,8 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
         <v>45082</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -20131,8 +20143,8 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
         <v>45176</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -20187,8 +20199,8 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
         <v>45240</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -20243,7 +20255,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>1488</v>
       </c>
@@ -20299,7 +20311,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>1505</v>
       </c>
@@ -20355,7 +20367,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>1523</v>
       </c>
@@ -20377,7 +20389,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>1524</v>
       </c>
@@ -20433,7 +20445,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>1538</v>
       </c>
@@ -20489,7 +20501,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>1553</v>
       </c>
@@ -20545,7 +20557,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>1570</v>
       </c>
@@ -20601,7 +20613,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>1583</v>
       </c>
@@ -20657,7 +20669,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>1488</v>
       </c>
@@ -20713,7 +20725,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>1613</v>
       </c>
@@ -20735,7 +20747,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>1614</v>
       </c>
@@ -20791,7 +20803,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>1630</v>
       </c>
@@ -20847,7 +20859,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>1647</v>
       </c>
@@ -20903,7 +20915,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>1488</v>
       </c>
@@ -20959,7 +20971,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>1673</v>
       </c>
@@ -20981,7 +20993,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>1674</v>
       </c>
@@ -21037,7 +21049,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>1688</v>
       </c>
@@ -21093,7 +21105,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>1697</v>
       </c>
@@ -21149,7 +21161,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>1712</v>
       </c>
@@ -21205,7 +21217,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>1724</v>
       </c>
@@ -21261,7 +21273,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>1740</v>
       </c>
@@ -21317,7 +21329,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>1754</v>
       </c>
@@ -21373,7 +21385,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>1765</v>
       </c>
@@ -21429,7 +21441,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>1488</v>
       </c>
@@ -21485,7 +21497,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>1785</v>
       </c>
@@ -21507,7 +21519,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>1786</v>
       </c>
@@ -21563,7 +21575,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>1802</v>
       </c>
@@ -21619,7 +21631,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>1819</v>
       </c>
@@ -21675,7 +21687,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>1488</v>
       </c>
@@ -21731,7 +21743,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>1848</v>
       </c>
@@ -21753,7 +21765,7 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>1849</v>
       </c>
@@ -21809,7 +21821,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>1867</v>
       </c>
@@ -21865,7 +21877,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>1880</v>
       </c>
@@ -21921,7 +21933,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>1887</v>
       </c>
@@ -21977,7 +21989,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>1900</v>
       </c>
@@ -22033,7 +22045,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>1910</v>
       </c>
@@ -22089,7 +22101,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>1924</v>
       </c>
@@ -22145,7 +22157,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>1938</v>
       </c>
@@ -22201,7 +22213,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>1945</v>
       </c>
@@ -22257,7 +22269,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>1488</v>
       </c>
@@ -22313,7 +22325,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>1959</v>
       </c>
@@ -22335,7 +22347,7 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>1960</v>
       </c>
@@ -22391,7 +22403,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>1976</v>
       </c>
@@ -22447,7 +22459,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>1992</v>
       </c>
@@ -22503,7 +22515,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>1488</v>
       </c>
@@ -22559,7 +22571,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>2003</v>
       </c>
@@ -22581,7 +22593,7 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>2004</v>
       </c>
@@ -22637,7 +22649,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>2013</v>
       </c>
@@ -22693,7 +22705,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>2026</v>
       </c>
@@ -22749,7 +22761,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>2041</v>
       </c>
@@ -22805,7 +22817,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>2056</v>
       </c>
@@ -22861,7 +22873,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>2070</v>
       </c>
@@ -22917,7 +22929,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>2081</v>
       </c>
@@ -22973,7 +22985,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>2095</v>
       </c>
@@ -23029,7 +23041,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>1488</v>
       </c>
@@ -23085,7 +23097,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>2122</v>
       </c>
@@ -23107,7 +23119,7 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
     </row>
-    <row r="111" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>2123</v>
       </c>
@@ -23163,7 +23175,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>2141</v>
       </c>
@@ -23219,7 +23231,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>2156</v>
       </c>
@@ -23275,7 +23287,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>2170</v>
       </c>
@@ -23331,7 +23343,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>2172</v>
       </c>
@@ -23353,7 +23365,7 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>2173</v>
       </c>
@@ -23409,7 +23421,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>2185</v>
       </c>
@@ -23465,7 +23477,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>2201</v>
       </c>
@@ -23521,7 +23533,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>2216</v>
       </c>
@@ -23577,7 +23589,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>2233</v>
       </c>
@@ -23599,7 +23611,7 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>2234</v>
       </c>
@@ -23655,7 +23667,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>2250</v>
       </c>
@@ -23711,7 +23723,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>1488</v>
       </c>
@@ -23767,7 +23779,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>2264</v>
       </c>
@@ -23789,8 +23801,8 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A125" s="5">
         <v>44927</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -23845,8 +23857,8 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
         <v>44959</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -23901,8 +23913,8 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
         <v>44988</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -23957,8 +23969,8 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
         <v>45111</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -24013,8 +24025,8 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A129" s="5">
         <v>45177</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -24069,7 +24081,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>1488</v>
       </c>
@@ -24125,7 +24137,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>1505</v>
       </c>
@@ -24181,7 +24193,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>2342</v>
       </c>
@@ -24203,7 +24215,7 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
     </row>
-    <row r="133" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>1786</v>
       </c>
@@ -24259,7 +24271,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>1802</v>
       </c>
@@ -24315,7 +24327,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>1819</v>
       </c>
@@ -24371,7 +24383,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>1488</v>
       </c>
@@ -24427,7 +24439,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>2392</v>
       </c>
@@ -24449,7 +24461,7 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>2393</v>
       </c>
@@ -24505,7 +24517,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>2410</v>
       </c>
@@ -24561,7 +24573,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>2425</v>
       </c>
@@ -24617,7 +24629,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>2428</v>
       </c>
@@ -24673,7 +24685,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>2431</v>
       </c>
@@ -24729,7 +24741,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>2439</v>
       </c>
@@ -24785,7 +24797,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>1488</v>
       </c>
@@ -24841,7 +24853,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>2454</v>
       </c>
@@ -24863,7 +24875,7 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>2455</v>
       </c>
@@ -24919,7 +24931,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>2471</v>
       </c>
@@ -24975,7 +24987,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>2486</v>
       </c>
@@ -25031,7 +25043,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>2499</v>
       </c>
@@ -25087,7 +25099,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>1488</v>
       </c>
@@ -25143,7 +25155,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>2514</v>
       </c>
@@ -25165,7 +25177,7 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
     </row>
-    <row r="152" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>2515</v>
       </c>
@@ -25221,7 +25233,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>2525</v>
       </c>
@@ -25277,7 +25289,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>2538</v>
       </c>
@@ -25333,7 +25345,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>2552</v>
       </c>
@@ -25389,7 +25401,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>1488</v>
       </c>
@@ -25445,7 +25457,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>2573</v>
       </c>
@@ -25467,7 +25479,7 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
     </row>
-    <row r="158" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>2574</v>
       </c>
@@ -25523,7 +25535,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>2586</v>
       </c>
@@ -25579,7 +25591,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>2595</v>
       </c>
@@ -25635,7 +25647,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>2607</v>
       </c>
@@ -25691,7 +25703,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>1488</v>
       </c>
@@ -25747,7 +25759,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>2627</v>
       </c>
@@ -25769,7 +25781,7 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
     </row>
-    <row r="164" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>2628</v>
       </c>
@@ -25825,7 +25837,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="1" t="s">
         <v>2639</v>
@@ -25879,7 +25891,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
         <v>2648</v>
@@ -25933,7 +25945,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
         <v>2659</v>
@@ -25987,7 +25999,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>2672</v>
       </c>
@@ -26043,7 +26055,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>1488</v>
       </c>
@@ -26099,7 +26111,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>2691</v>
       </c>
@@ -26121,7 +26133,7 @@
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>2692</v>
       </c>
@@ -26177,8 +26189,8 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A172" s="7">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
         <v>45050</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -26233,8 +26245,8 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A173" s="7">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A173" s="5">
         <v>45083</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -26289,8 +26301,8 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A174" s="7">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A174" s="5">
         <v>45114</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -26345,8 +26357,8 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A175" s="7">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A175" s="5">
         <v>45207</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -26401,7 +26413,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>1488</v>
       </c>
@@ -26457,7 +26469,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>1505</v>
       </c>
@@ -26513,7 +26525,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>2771</v>
       </c>
@@ -26535,8 +26547,8 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A179" s="7">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A179" s="5">
         <v>44958</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -26591,8 +26603,8 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A180" s="7">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A180" s="5">
         <v>44988</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -26647,8 +26659,8 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A181" s="7">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A181" s="5">
         <v>45020</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -26703,8 +26715,8 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A182" s="7">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A182" s="5">
         <v>45174</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -26759,7 +26771,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>1505</v>
       </c>
@@ -26815,7 +26827,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>2831</v>
       </c>
@@ -26837,7 +26849,7 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>2832</v>
       </c>
@@ -26893,8 +26905,8 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A186" s="5">
         <v>44958</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -26949,8 +26961,8 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A187" s="7">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A187" s="5">
         <v>45019</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -27005,8 +27017,8 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A188" s="7">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A188" s="5">
         <v>45082</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -27061,8 +27073,8 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A189" s="7">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A189" s="5">
         <v>45206</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -27117,7 +27129,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>1488</v>
       </c>
@@ -27173,7 +27185,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>1505</v>
       </c>
@@ -27229,7 +27241,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>2916</v>
       </c>
@@ -27251,7 +27263,7 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>2832</v>
       </c>
@@ -27307,8 +27319,8 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A194" s="7">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A194" s="5">
         <v>44986</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -27363,8 +27375,8 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A195" s="7">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A195" s="5">
         <v>45050</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -27419,8 +27431,8 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A196" s="7">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A196" s="5">
         <v>45113</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -27475,8 +27487,8 @@
         <v>954</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A197" s="7">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A197" s="5">
         <v>45207</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -27531,7 +27543,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>1488</v>
       </c>
@@ -27587,7 +27599,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>1505</v>
       </c>
@@ -27643,7 +27655,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>2990</v>
       </c>
@@ -27665,7 +27677,7 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>2832</v>
       </c>
@@ -27721,8 +27733,8 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A202" s="7">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A202" s="5">
         <v>45017</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -27777,8 +27789,8 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A203" s="7">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A203" s="5">
         <v>45082</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -27833,8 +27845,8 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A204" s="7">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A204" s="5">
         <v>45145</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -27889,8 +27901,8 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A205" s="7">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A205" s="5">
         <v>45208</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -27945,7 +27957,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>1488</v>
       </c>
@@ -28001,7 +28013,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>1505</v>
       </c>
@@ -28057,7 +28069,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>3062</v>
       </c>
@@ -28079,7 +28091,7 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>2832</v>
       </c>
@@ -28135,8 +28147,8 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A210" s="7">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A210" s="5">
         <v>44927</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -28191,8 +28203,8 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A211" s="7">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A211" s="5">
         <v>45018</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -28247,8 +28259,8 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="7">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A212" s="5">
         <v>45112</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -28303,8 +28315,8 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="7">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A213" s="5">
         <v>45207</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -28359,7 +28371,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>1488</v>
       </c>
@@ -28415,7 +28427,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>1505</v>
       </c>
@@ -28471,7 +28483,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>3142</v>
       </c>
@@ -28493,7 +28505,7 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>2832</v>
       </c>
@@ -28549,8 +28561,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="7">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A218" s="5">
         <v>44986</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -28605,8 +28617,8 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="7">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A219" s="5">
         <v>45050</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -28661,8 +28673,8 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="7">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A220" s="5">
         <v>45113</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -28717,8 +28729,8 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="7">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A221" s="5">
         <v>45207</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -28773,7 +28785,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>1488</v>
       </c>
@@ -28829,7 +28841,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>1505</v>
       </c>
@@ -28885,7 +28897,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>3206</v>
       </c>
@@ -28907,7 +28919,7 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>2832</v>
       </c>
@@ -28963,8 +28975,8 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A226" s="7">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A226" s="5">
         <v>44958</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -29019,8 +29031,8 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A227" s="7">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A227" s="5">
         <v>45019</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -29075,8 +29087,8 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A228" s="7">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A228" s="5">
         <v>45082</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -29131,8 +29143,8 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A229" s="7">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A229" s="5">
         <v>45206</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -29187,7 +29199,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>1488</v>
       </c>
@@ -29243,7 +29255,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>1505</v>
       </c>
@@ -29299,7 +29311,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>3273</v>
       </c>
@@ -29321,7 +29333,7 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>2832</v>
       </c>
@@ -29377,8 +29389,8 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A234" s="7">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A234" s="5">
         <v>44927</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -29433,8 +29445,8 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A235" s="7">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A235" s="5">
         <v>44987</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -29489,8 +29501,8 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A236" s="7">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A236" s="5">
         <v>45050</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -29545,8 +29557,8 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A237" s="7">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A237" s="5">
         <v>45205</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -29601,7 +29613,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>1488</v>
       </c>
@@ -29657,7 +29669,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>1505</v>
       </c>
@@ -29713,7 +29725,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>3340</v>
       </c>
@@ -29735,7 +29747,7 @@
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>2832</v>
       </c>
@@ -29791,8 +29803,8 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A242" s="7">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A242" s="5">
         <v>44927</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -29847,8 +29859,8 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A243" s="7">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A243" s="5">
         <v>45018</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -29903,8 +29915,8 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A244" s="7">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A244" s="5">
         <v>45204</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -29959,7 +29971,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>1488</v>
       </c>
@@ -30015,7 +30027,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>1505</v>
       </c>
@@ -30071,7 +30083,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>3384</v>
       </c>
@@ -30093,7 +30105,7 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
     </row>
-    <row r="248" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>3385</v>
       </c>
@@ -30149,7 +30161,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>3402</v>
       </c>
@@ -30205,7 +30217,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>3407</v>
       </c>
@@ -30261,7 +30273,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>1488</v>
       </c>
@@ -30317,7 +30329,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>1505</v>
       </c>
@@ -30373,7 +30385,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>3429</v>
       </c>
@@ -30395,7 +30407,7 @@
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>3430</v>
       </c>
@@ -30451,8 +30463,8 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A255" s="7">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A255" s="5">
         <v>45051</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -30507,8 +30519,8 @@
         <v>891</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A256" s="7">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A256" s="5">
         <v>45083</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -30563,8 +30575,8 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A257" s="7">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A257" s="5">
         <v>45114</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -30619,8 +30631,8 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A258" s="5">
         <v>45207</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -30675,7 +30687,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>1488</v>
       </c>
@@ -30731,7 +30743,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>1505</v>
       </c>
@@ -30787,7 +30799,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>3494</v>
       </c>
@@ -30809,7 +30821,7 @@
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>3430</v>
       </c>
@@ -30865,8 +30877,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A263" s="7">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A263" s="5">
         <v>45051</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -30921,8 +30933,8 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A264" s="7">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A264" s="5">
         <v>45083</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -30977,8 +30989,8 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A265" s="7">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A265" s="5">
         <v>45114</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -31033,8 +31045,8 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A266" s="7">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A266" s="5">
         <v>45207</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -31089,7 +31101,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>1488</v>
       </c>
@@ -31145,7 +31157,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>1505</v>
       </c>
@@ -31201,7 +31213,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>3568</v>
       </c>
@@ -31223,7 +31235,7 @@
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>3430</v>
       </c>
@@ -31279,8 +31291,8 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A271" s="7">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A271" s="5">
         <v>45051</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -31335,8 +31347,8 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A272" s="7">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A272" s="5">
         <v>45083</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -31391,8 +31403,8 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A273" s="7">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A273" s="5">
         <v>45206</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -31447,7 +31459,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>1488</v>
       </c>
@@ -31503,7 +31515,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>1505</v>
       </c>
@@ -31559,7 +31571,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>3630</v>
       </c>
@@ -31581,7 +31593,7 @@
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>3430</v>
       </c>
@@ -31637,8 +31649,8 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A278" s="7">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A278" s="5">
         <v>45051</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -31693,8 +31705,8 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A279" s="7">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A279" s="5">
         <v>45083</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -31749,8 +31761,8 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A280" s="7">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A280" s="5">
         <v>45114</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -31805,8 +31817,8 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A281" s="7">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A281" s="5">
         <v>45207</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -31861,7 +31873,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>1488</v>
       </c>
@@ -31917,7 +31929,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>1505</v>
       </c>
@@ -31973,7 +31985,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>3685</v>
       </c>
@@ -31995,7 +32007,7 @@
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>3430</v>
       </c>
@@ -32051,8 +32063,8 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A286" s="7">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A286" s="5">
         <v>45082</v>
       </c>
       <c r="B286" s="1" t="s">
@@ -32107,8 +32119,8 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A287" s="7">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A287" s="5">
         <v>45114</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -32163,8 +32175,8 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A288" s="7">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A288" s="5">
         <v>45146</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -32219,8 +32231,8 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A289" s="7">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A289" s="5">
         <v>45208</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -32275,7 +32287,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>1488</v>
       </c>
@@ -32331,7 +32343,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>1505</v>
       </c>
@@ -32387,7 +32399,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>3739</v>
       </c>
@@ -32409,7 +32421,7 @@
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>3430</v>
       </c>
@@ -32465,8 +32477,8 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A294" s="7">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A294" s="5">
         <v>45082</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -32521,8 +32533,8 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A295" s="7">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A295" s="5">
         <v>45114</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -32577,8 +32589,8 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A296" s="7">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A296" s="5">
         <v>45146</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -32633,8 +32645,8 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A297" s="7">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A297" s="5">
         <v>45208</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -32689,7 +32701,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>1488</v>
       </c>
@@ -32745,7 +32757,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>1505</v>
       </c>
@@ -32801,7 +32813,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>3794</v>
       </c>
@@ -32823,7 +32835,7 @@
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>3795</v>
       </c>
@@ -32879,8 +32891,8 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A302" s="7">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A302" s="5">
         <v>45083</v>
       </c>
       <c r="B302" s="1" t="s">
@@ -32935,8 +32947,8 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A303" s="7">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A303" s="5">
         <v>45114</v>
       </c>
       <c r="B303" s="1" t="s">
@@ -32991,8 +33003,8 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A304" s="7">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A304" s="5">
         <v>45146</v>
       </c>
       <c r="B304" s="1" t="s">
@@ -33047,8 +33059,8 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A305" s="7">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A305" s="5">
         <v>45208</v>
       </c>
       <c r="B305" s="1" t="s">
@@ -33103,7 +33115,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>1488</v>
       </c>
@@ -33159,7 +33171,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>1505</v>
       </c>
@@ -33215,7 +33227,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>3847</v>
       </c>
@@ -33237,7 +33249,7 @@
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>3848</v>
       </c>
@@ -33293,8 +33305,8 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A310" s="7">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A310" s="5">
         <v>45019</v>
       </c>
       <c r="B310" s="1" t="s">
@@ -33349,8 +33361,8 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A311" s="7">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A311" s="5">
         <v>45051</v>
       </c>
       <c r="B311" s="1" t="s">
@@ -33405,8 +33417,8 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A312" s="7">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A312" s="5">
         <v>45083</v>
       </c>
       <c r="B312" s="1" t="s">
@@ -33461,8 +33473,8 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A313" s="7">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A313" s="5">
         <v>45206</v>
       </c>
       <c r="B313" s="1" t="s">
@@ -33517,7 +33529,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>1488</v>
       </c>
@@ -33573,7 +33585,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>1505</v>
       </c>
@@ -33629,7 +33641,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>3904</v>
       </c>
@@ -33651,7 +33663,7 @@
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>3848</v>
       </c>
@@ -33707,8 +33719,8 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A318" s="7">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A318" s="5">
         <v>45019</v>
       </c>
       <c r="B318" s="1" t="s">
@@ -33763,8 +33775,8 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A319" s="7">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A319" s="5">
         <v>45051</v>
       </c>
       <c r="B319" s="1" t="s">
@@ -33819,8 +33831,8 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A320" s="7">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A320" s="5">
         <v>45083</v>
       </c>
       <c r="B320" s="1" t="s">
@@ -33875,8 +33887,8 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A321" s="7">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A321" s="5">
         <v>45206</v>
       </c>
       <c r="B321" s="1" t="s">
@@ -33931,7 +33943,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>1488</v>
       </c>
@@ -33987,7 +33999,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>1505</v>
       </c>
@@ -34043,7 +34055,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>3959</v>
       </c>
@@ -34065,7 +34077,7 @@
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>2692</v>
       </c>
@@ -34121,8 +34133,8 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A326" s="7">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A326" s="5">
         <v>45050</v>
       </c>
       <c r="B326" s="1" t="s">
@@ -34177,8 +34189,8 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A327" s="7">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A327" s="5">
         <v>45083</v>
       </c>
       <c r="B327" s="1" t="s">
@@ -34233,8 +34245,8 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A328" s="7">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A328" s="5">
         <v>45114</v>
       </c>
       <c r="B328" s="1" t="s">
@@ -34289,8 +34301,8 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A329" s="7">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A329" s="5">
         <v>45207</v>
       </c>
       <c r="B329" s="1" t="s">
@@ -34345,7 +34357,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>1488</v>
       </c>
@@ -34401,7 +34413,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>1505</v>
       </c>
@@ -34457,7 +34469,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
         <v>4014</v>
       </c>
@@ -34479,7 +34491,7 @@
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>4015</v>
       </c>
@@ -34535,7 +34547,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>4018</v>
       </c>
@@ -34591,7 +34603,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>4022</v>
       </c>
@@ -34647,7 +34659,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>4025</v>
       </c>
@@ -34703,7 +34715,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>4027</v>
       </c>
@@ -34759,7 +34771,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>4031</v>
       </c>
@@ -34815,7 +34827,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>4037</v>
       </c>
@@ -34871,7 +34883,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>4038</v>
       </c>
@@ -34927,7 +34939,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>4045</v>
       </c>
@@ -34983,7 +34995,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>4046</v>
       </c>
@@ -35039,7 +35051,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>4053</v>
       </c>
@@ -35095,7 +35107,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>4057</v>
       </c>
@@ -35151,7 +35163,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>4060</v>
       </c>
@@ -35207,7 +35219,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>4065</v>
       </c>
@@ -35263,7 +35275,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>4067</v>
       </c>
@@ -35319,7 +35331,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>4069</v>
       </c>
@@ -35375,7 +35387,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>4074</v>
       </c>
@@ -35431,7 +35443,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>4075</v>
       </c>
@@ -35487,7 +35499,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>4076</v>
       </c>
@@ -35543,7 +35555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>1488</v>
       </c>
@@ -35599,7 +35611,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
         <v>4079</v>
       </c>
@@ -35621,7 +35633,7 @@
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>4080</v>
       </c>
@@ -35677,7 +35689,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>4082</v>
       </c>
@@ -35733,7 +35745,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>4087</v>
       </c>
@@ -35789,7 +35801,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>4098</v>
       </c>
@@ -35845,7 +35857,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>4109</v>
       </c>
@@ -35901,7 +35913,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>4112</v>
       </c>
@@ -35957,7 +35969,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>4113</v>
       </c>
@@ -36013,7 +36025,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>4115</v>
       </c>
@@ -36069,7 +36081,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>4116</v>
       </c>
@@ -36125,7 +36137,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>4117</v>
       </c>
@@ -36181,7 +36193,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>4118</v>
       </c>
@@ -36237,7 +36249,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>4120</v>
       </c>
@@ -36293,7 +36305,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>4123</v>
       </c>
@@ -36349,7 +36361,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>4124</v>
       </c>
@@ -36405,7 +36417,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>4125</v>
       </c>
@@ -36461,7 +36473,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>4126</v>
       </c>
@@ -36517,7 +36529,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="370" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>4127</v>
       </c>
@@ -36573,7 +36585,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="371" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>4128</v>
       </c>
@@ -36629,7 +36641,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="372" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>4129</v>
       </c>
@@ -36685,7 +36697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>4130</v>
       </c>
@@ -36741,7 +36753,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>1488</v>
       </c>
@@ -36797,7 +36809,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
         <v>4142</v>
       </c>
@@ -36819,7 +36831,7 @@
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>2692</v>
       </c>
@@ -36875,8 +36887,8 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A377" s="7">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A377" s="5">
         <v>45020</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -36931,8 +36943,8 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A378" s="7">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A378" s="5">
         <v>45051</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -36987,8 +36999,8 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A379" s="7">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A379" s="5">
         <v>45113</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -37043,8 +37055,8 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A380" s="7">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A380" s="5">
         <v>45207</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -37099,7 +37111,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>1488</v>
       </c>
@@ -37155,7 +37167,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>1505</v>
       </c>
